--- a/team_specific_matrix/Saint Peter's_A.xlsx
+++ b/team_specific_matrix/Saint Peter's_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2016460905349794</v>
+        <v>0.1921824104234528</v>
       </c>
       <c r="C2">
-        <v>0.5349794238683128</v>
+        <v>0.5472312703583062</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01234567901234568</v>
+        <v>0.01954397394136808</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.168724279835391</v>
+        <v>0.1628664495114006</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08230452674897119</v>
+        <v>0.07817589576547231</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01515151515151515</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C3">
-        <v>0.02272727272727273</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0303030303030303</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7121212121212122</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2196969696969697</v>
+        <v>0.1929824561403509</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6060606060606061</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.303030303030303</v>
+        <v>0.2926829268292683</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08641975308641975</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0308641975308642</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06172839506172839</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2530864197530864</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006172839506172839</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1049382716049383</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="R6">
-        <v>0.08641975308641975</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S6">
         <v>0.3703703703703703</v>
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1347517730496454</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007092198581560284</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06382978723404255</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1347517730496454</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01418439716312057</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1702127659574468</v>
+        <v>0.1487179487179487</v>
       </c>
       <c r="R7">
-        <v>0.05673758865248227</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="S7">
-        <v>0.4184397163120567</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1204379562043796</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01824817518248175</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05109489051094891</v>
+        <v>0.04941860465116279</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1569343065693431</v>
+        <v>0.1540697674418605</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02554744525547445</v>
+        <v>0.02616279069767442</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1313868613138686</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="R8">
-        <v>0.08394160583941605</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="S8">
-        <v>0.4124087591240876</v>
+        <v>0.4215116279069768</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1454545454545454</v>
+        <v>0.147887323943662</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08181818181818182</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00909090909090909</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1272727272727273</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="R9">
-        <v>0.09090909090909091</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="S9">
-        <v>0.4454545454545454</v>
+        <v>0.4366197183098591</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1215161649944259</v>
+        <v>0.1148086522462562</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02564102564102564</v>
+        <v>0.02412645590682196</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07915273132664437</v>
+        <v>0.08319467554076539</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.137123745819398</v>
+        <v>0.1480865224625624</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01226309921962096</v>
+        <v>0.01164725457570715</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2028985507246377</v>
+        <v>0.2004991680532446</v>
       </c>
       <c r="R10">
-        <v>0.05797101449275362</v>
+        <v>0.05990016638935108</v>
       </c>
       <c r="S10">
-        <v>0.3634336677814939</v>
+        <v>0.3577371048252912</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1735537190082645</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0.1021671826625387</v>
       </c>
       <c r="K11">
-        <v>0.2148760330578512</v>
+        <v>0.195046439628483</v>
       </c>
       <c r="L11">
-        <v>0.4958677685950413</v>
+        <v>0.5170278637770898</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02479338842975207</v>
+        <v>0.02786377708978328</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7235772357723578</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2276422764227642</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01626016260162602</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03252032520325204</v>
+        <v>0.04093567251461988</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6521739130434783</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3478260869565217</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02994011976047904</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.155688622754491</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="I15">
-        <v>0.04191616766467066</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="J15">
-        <v>0.4311377245508982</v>
+        <v>0.4330357142857143</v>
       </c>
       <c r="K15">
-        <v>0.08982035928143713</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005988023952095809</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08982035928143713</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.155688622754491</v>
+        <v>0.1651785714285714</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1208053691275168</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="I16">
-        <v>0.06040268456375839</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.5167785234899329</v>
+        <v>0.515625</v>
       </c>
       <c r="K16">
-        <v>0.09395973154362416</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006711409395973154</v>
+        <v>0.015625</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08724832214765101</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1140939597315436</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02592592592592593</v>
+        <v>0.02305475504322766</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.2132564841498559</v>
       </c>
       <c r="I17">
-        <v>0.06666666666666667</v>
+        <v>0.069164265129683</v>
       </c>
       <c r="J17">
-        <v>0.3851851851851852</v>
+        <v>0.3948126801152738</v>
       </c>
       <c r="K17">
-        <v>0.1296296296296296</v>
+        <v>0.1296829971181556</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01111111111111111</v>
+        <v>0.008645533141210375</v>
       </c>
       <c r="N17">
-        <v>0.007407407407407408</v>
+        <v>0.005763688760806916</v>
       </c>
       <c r="O17">
-        <v>0.08148148148148149</v>
+        <v>0.069164265129683</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09259259259259259</v>
+        <v>0.08645533141210375</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01869158878504673</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1962616822429906</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="I18">
-        <v>0.04672897196261682</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="J18">
-        <v>0.3644859813084112</v>
+        <v>0.3566433566433567</v>
       </c>
       <c r="K18">
-        <v>0.1308411214953271</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01869158878504673</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08411214953271028</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1401869158878505</v>
+        <v>0.1258741258741259</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01900237529691211</v>
+        <v>0.01702508960573477</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1852731591448931</v>
+        <v>0.1756272401433692</v>
       </c>
       <c r="I19">
-        <v>0.08194774346793349</v>
+        <v>0.07168458781362007</v>
       </c>
       <c r="J19">
-        <v>0.3717339667458432</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="K19">
-        <v>0.1294536817102138</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02019002375296912</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008960573476702509</v>
       </c>
       <c r="O19">
-        <v>0.08194774346793349</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1104513064133017</v>
+        <v>0.1218637992831541</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Saint Peter's_A.xlsx
+++ b/team_specific_matrix/Saint Peter's_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1921824104234528</v>
+        <v>0.1957186544342508</v>
       </c>
       <c r="C2">
-        <v>0.5472312703583062</v>
+        <v>0.5412844036697247</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01954397394136808</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1628664495114006</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07817589576547231</v>
+        <v>0.08868501529051988</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01754385964912281</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C3">
-        <v>0.01754385964912281</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03508771929824561</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7368421052631579</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1929824561403509</v>
+        <v>0.1978021978021978</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07317073170731707</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6341463414634146</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2926829268292683</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07407407407407407</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02314814814814815</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07870370370370371</v>
+        <v>0.08</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2638888888888889</v>
+        <v>0.2577777777777778</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01388888888888889</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1018518518518518</v>
+        <v>0.1022222222222222</v>
       </c>
       <c r="R6">
-        <v>0.07407407407407407</v>
+        <v>0.08</v>
       </c>
       <c r="S6">
-        <v>0.3703703703703703</v>
+        <v>0.3688888888888889</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1282051282051282</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005128205128205128</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="F7">
-        <v>0.06666666666666667</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1435897435897436</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01025641025641026</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1487179487179487</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="R7">
-        <v>0.06153846153846154</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="S7">
-        <v>0.4358974358974359</v>
+        <v>0.4278846153846154</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1220930232558139</v>
+        <v>0.1218130311614731</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01744186046511628</v>
+        <v>0.0169971671388102</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04941860465116279</v>
+        <v>0.05099150141643059</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1540697674418605</v>
+        <v>0.1558073654390935</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02616279069767442</v>
+        <v>0.0254957507082153</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1220930232558139</v>
+        <v>0.1218130311614731</v>
       </c>
       <c r="R8">
-        <v>0.0872093023255814</v>
+        <v>0.08781869688385269</v>
       </c>
       <c r="S8">
-        <v>0.4215116279069768</v>
+        <v>0.4192634560906516</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.147887323943662</v>
+        <v>0.1418918918918919</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007042253521126761</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07042253521126761</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1126760563380282</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.007042253521126761</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1267605633802817</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="R9">
-        <v>0.09154929577464789</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="S9">
-        <v>0.4366197183098591</v>
+        <v>0.4459459459459459</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1148086522462562</v>
+        <v>0.1190667739340306</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02412645590682196</v>
+        <v>0.02574416733708769</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08319467554076539</v>
+        <v>0.08447304907481899</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1480865224625624</v>
+        <v>0.1464199517296862</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01164725457570715</v>
+        <v>0.01367658889782784</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2004991680532446</v>
+        <v>0.1971037811745776</v>
       </c>
       <c r="R10">
-        <v>0.05990016638935108</v>
+        <v>0.0587288817377313</v>
       </c>
       <c r="S10">
-        <v>0.3577371048252912</v>
+        <v>0.3547868061142397</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1021671826625387</v>
+        <v>0.1023391812865497</v>
       </c>
       <c r="K11">
-        <v>0.195046439628483</v>
+        <v>0.195906432748538</v>
       </c>
       <c r="L11">
-        <v>0.5170278637770898</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02786377708978328</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7192982456140351</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2222222222222222</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01754385964912281</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04093567251461988</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1339285714285714</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="I15">
-        <v>0.04464285714285714</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="J15">
-        <v>0.4330357142857143</v>
+        <v>0.4267241379310345</v>
       </c>
       <c r="K15">
-        <v>0.08482142857142858</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01339285714285714</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08928571428571429</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1651785714285714</v>
+        <v>0.1767241379310345</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005208333333333333</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1041666666666667</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="I16">
         <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.515625</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="K16">
-        <v>0.1041666666666667</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.015625</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06770833333333333</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1041666666666667</v>
+        <v>0.107843137254902</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02305475504322766</v>
+        <v>0.02240896358543417</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2132564841498559</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="I17">
-        <v>0.069164265129683</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="J17">
-        <v>0.3948126801152738</v>
+        <v>0.4005602240896359</v>
       </c>
       <c r="K17">
-        <v>0.1296829971181556</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008645533141210375</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="N17">
-        <v>0.005763688760806916</v>
+        <v>0.005602240896358543</v>
       </c>
       <c r="O17">
-        <v>0.069164265129683</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08645533141210375</v>
+        <v>0.08403361344537816</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03496503496503497</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1888111888111888</v>
+        <v>0.1959459459459459</v>
       </c>
       <c r="I18">
-        <v>0.06993006993006994</v>
+        <v>0.07432432432432433</v>
       </c>
       <c r="J18">
-        <v>0.3566433566433567</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="K18">
-        <v>0.1258741258741259</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02097902097902098</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07692307692307693</v>
+        <v>0.07432432432432433</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1258741258741259</v>
+        <v>0.1283783783783784</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01702508960573477</v>
+        <v>0.01636520241171404</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1756272401433692</v>
+        <v>0.1739879414298019</v>
       </c>
       <c r="I19">
-        <v>0.07168458781362007</v>
+        <v>0.07235142118863049</v>
       </c>
       <c r="J19">
-        <v>0.3655913978494624</v>
+        <v>0.3660637381567614</v>
       </c>
       <c r="K19">
-        <v>0.1370967741935484</v>
+        <v>0.1386735572782084</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02150537634408602</v>
+        <v>0.020671834625323</v>
       </c>
       <c r="N19">
-        <v>0.0008960573476702509</v>
+        <v>0.0008613264427217916</v>
       </c>
       <c r="O19">
-        <v>0.08870967741935484</v>
+        <v>0.08871662360034453</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1218637992831541</v>
+        <v>0.1223083548664944</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Saint Peter's_A.xlsx
+++ b/team_specific_matrix/Saint Peter's_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1957186544342508</v>
+        <v>0.1936416184971098</v>
       </c>
       <c r="C2">
-        <v>0.5412844036697247</v>
+        <v>0.5433526011560693</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01834862385321101</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1559633027522936</v>
+        <v>0.1589595375722543</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08868501529051988</v>
+        <v>0.08670520231213873</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02197802197802198</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C3">
-        <v>0.01648351648351648</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03296703296703297</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7307692307692307</v>
+        <v>0.7371134020618557</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1978021978021978</v>
+        <v>0.1907216494845361</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6444444444444445</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2888888888888889</v>
+        <v>0.2765957446808511</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07111111111111111</v>
+        <v>0.06751054852320675</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02222222222222222</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2577777777777778</v>
+        <v>0.270042194092827</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01777777777777778</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1022222222222222</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="R6">
-        <v>0.08</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="S6">
-        <v>0.3688888888888889</v>
+        <v>0.3544303797468354</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1346153846153846</v>
+        <v>0.1294642857142857</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004807692307692308</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="E7">
-        <v>0.004807692307692308</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="F7">
-        <v>0.0673076923076923</v>
+        <v>0.0625</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1346153846153846</v>
+        <v>0.1383928571428572</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009615384615384616</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1586538461538461</v>
+        <v>0.15625</v>
       </c>
       <c r="R7">
-        <v>0.0576923076923077</v>
+        <v>0.0625</v>
       </c>
       <c r="S7">
-        <v>0.4278846153846154</v>
+        <v>0.4330357142857143</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1218130311614731</v>
+        <v>0.1240105540897098</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0169971671388102</v>
+        <v>0.0158311345646438</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05099150141643059</v>
+        <v>0.04749340369393139</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1558073654390935</v>
+        <v>0.158311345646438</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0254957507082153</v>
+        <v>0.02638522427440633</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1218130311614731</v>
+        <v>0.1345646437994723</v>
       </c>
       <c r="R8">
-        <v>0.08781869688385269</v>
+        <v>0.08970976253298153</v>
       </c>
       <c r="S8">
-        <v>0.4192634560906516</v>
+        <v>0.4036939313984169</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1418918918918919</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01351351351351351</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06756756756756757</v>
+        <v>0.06369426751592357</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1081081081081081</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006756756756756757</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1216216216216216</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="R9">
-        <v>0.0945945945945946</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="S9">
-        <v>0.4459459459459459</v>
+        <v>0.4585987261146497</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1190667739340306</v>
+        <v>0.1161242603550296</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02574416733708769</v>
+        <v>0.02514792899408284</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08447304907481899</v>
+        <v>0.08431952662721894</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1464199517296862</v>
+        <v>0.1457100591715976</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01367658889782784</v>
+        <v>0.01553254437869822</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1971037811745776</v>
+        <v>0.1982248520710059</v>
       </c>
       <c r="R10">
-        <v>0.0587288817377313</v>
+        <v>0.05843195266272189</v>
       </c>
       <c r="S10">
-        <v>0.3547868061142397</v>
+        <v>0.356508875739645</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1578947368421053</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1023391812865497</v>
+        <v>0.1090425531914894</v>
       </c>
       <c r="K11">
-        <v>0.195906432748538</v>
+        <v>0.199468085106383</v>
       </c>
       <c r="L11">
-        <v>0.5175438596491229</v>
+        <v>0.5079787234042553</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02631578947368421</v>
+        <v>0.02393617021276596</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7307692307692307</v>
+        <v>0.7208121827411168</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2087912087912088</v>
+        <v>0.2081218274111675</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="L12">
-        <v>0.02197802197802198</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03846153846153846</v>
+        <v>0.03553299492385787</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2571428571428571</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03448275862068965</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1293103448275862</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="I15">
-        <v>0.04310344827586207</v>
+        <v>0.04330708661417323</v>
       </c>
       <c r="J15">
-        <v>0.4267241379310345</v>
+        <v>0.4133858267716535</v>
       </c>
       <c r="K15">
-        <v>0.09051724137931035</v>
+        <v>0.1062992125984252</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01293103448275862</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08620689655172414</v>
+        <v>0.08267716535433071</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1767241379310345</v>
+        <v>0.1850393700787402</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.004901960784313725</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.09803921568627451</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="I16">
-        <v>0.08333333333333333</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="J16">
-        <v>0.5196078431372549</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="K16">
-        <v>0.107843137254902</v>
+        <v>0.1050228310502283</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01470588235294118</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06372549019607843</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.107843137254902</v>
+        <v>0.1141552511415525</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02240896358543417</v>
+        <v>0.02544529262086514</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2100840336134454</v>
+        <v>0.2010178117048346</v>
       </c>
       <c r="I17">
-        <v>0.06722689075630252</v>
+        <v>0.07124681933842239</v>
       </c>
       <c r="J17">
-        <v>0.4005602240896359</v>
+        <v>0.4096692111959288</v>
       </c>
       <c r="K17">
-        <v>0.134453781512605</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008403361344537815</v>
+        <v>0.01017811704834606</v>
       </c>
       <c r="N17">
-        <v>0.005602240896358543</v>
+        <v>0.005089058524173028</v>
       </c>
       <c r="O17">
-        <v>0.06722689075630252</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08403361344537816</v>
+        <v>0.08651399491094147</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03378378378378379</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1959459459459459</v>
+        <v>0.1863354037267081</v>
       </c>
       <c r="I18">
-        <v>0.07432432432432433</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="J18">
-        <v>0.3513513513513514</v>
+        <v>0.3540372670807453</v>
       </c>
       <c r="K18">
-        <v>0.1216216216216216</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02027027027027027</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07432432432432433</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1283783783783784</v>
+        <v>0.124223602484472</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01636520241171404</v>
+        <v>0.01602564102564102</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1739879414298019</v>
+        <v>0.1762820512820513</v>
       </c>
       <c r="I19">
-        <v>0.07235142118863049</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="J19">
-        <v>0.3660637381567614</v>
+        <v>0.3669871794871795</v>
       </c>
       <c r="K19">
-        <v>0.1386735572782084</v>
+        <v>0.1386217948717949</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.020671834625323</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N19">
-        <v>0.0008613264427217916</v>
+        <v>0.0008012820512820513</v>
       </c>
       <c r="O19">
-        <v>0.08871662360034453</v>
+        <v>0.08814102564102565</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1223083548664944</v>
+        <v>0.1233974358974359</v>
       </c>
     </row>
   </sheetData>
